--- a/sample_data/sample_data_2021-11.xlsx
+++ b/sample_data/sample_data_2021-11.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -630,7 +630,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
